--- a/BalanceSheet/ETN_bal.xlsx
+++ b/BalanceSheet/ETN_bal.xlsx
@@ -2660,16 +2660,16 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-79000000.0</v>
+        <v>-149000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-39000000.0</v>
+        <v>-70000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>48000000.0</v>
+        <v>-46000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-16000000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>24000000.0</v>
